--- a/src/lib/survey_analysis_results.xlsx
+++ b/src/lib/survey_analysis_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CC\Desktop\RCL\RCL-Questionnaire\src\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imaha\Desktop\side projects\rcl\RCL-Questionnaire\src\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94007599-9145-40AD-A6F5-851C5A23E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B1ED1A-98B5-4122-9B1D-CCE0341AF55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag_Frequency_A" sheetId="1" r:id="rId1"/>
@@ -1743,9 +1743,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1906,11 +1906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2057,9 +2063,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2091,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>5.375</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>4.8571428571428568</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2149,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2157,12 +2167,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2194,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +2216,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2210,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2218,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2242,7 +2256,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2261,14 +2275,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +2302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>2.4230769230769229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>3.7307692307692308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2356,9 +2373,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2718,7 +2738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2956,7 +2976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -3072,7 +3092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -3194,7 +3214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -3316,7 +3336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -3786,7 +3806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -3908,7 +3928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -4024,7 +4044,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -4140,7 +4160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -4262,7 +4282,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -4378,7 +4398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>335</v>
       </c>
@@ -4500,7 +4520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>349</v>
       </c>
@@ -4616,7 +4636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>360</v>
       </c>
@@ -4738,7 +4758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>373</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -4976,7 +4996,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -5092,7 +5112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>412</v>
       </c>
@@ -5214,7 +5234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -5330,7 +5350,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>434</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>445</v>
       </c>
